--- a/FLUXO DE CAIXA AGOSTO 2019/26-08-2019_FluxoDeCaixa.xlsx
+++ b/FLUXO DE CAIXA AGOSTO 2019/26-08-2019_FluxoDeCaixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\FLUXO DE CAIXA AGOSTO 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEEA4148-2C6E-49F5-A558-CAB50315C50B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561CC4CE-E318-4508-B556-249754AC599D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9152A456-9720-4D0C-842A-50118CAD28D0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>FLUXO CAIXA DIÁRIO</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>DJUNTOR + CHAVE TETSTE</t>
+  </si>
+  <si>
+    <t>SUPORTE DE AR CONDICIONADO</t>
   </si>
 </sst>
 </file>
@@ -176,11 +179,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,22 +501,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5ADB1-AEA5-4558-B31C-D3F166D0CCA5}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -544,7 +547,7 @@
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -553,17 +556,17 @@
       <c r="B8" s="2">
         <v>392.68</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <f>SUM(B14:B24)</f>
-        <v>1454.28</v>
-      </c>
-      <c r="D9" s="9"/>
+        <f>SUM(B14:B25)</f>
+        <v>1474.28</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -571,7 +574,7 @@
       </c>
       <c r="B11" s="2">
         <f>(B6+B7)-B9</f>
-        <v>517.72</v>
+        <v>497.72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,7 +674,12 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -681,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="6">
-        <v>158.5</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
